--- a/database/Students_List.xlsx
+++ b/database/Students_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LF work\LF running courses\CX2002\Assignment\FYP system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/advait/Desktop/gitpositories/sc2002/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93015C6-51B2-494F-BF0D-6555A2297A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2DB339-DBD3-0D49-8242-6FF85B7FF7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26440" yWindow="9020" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>AKY013@e.ntu.edu.sg;</t>
+  </si>
+  <si>
+    <t>deRegistered</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -451,112 +457,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
